--- a/data/pca/factorExposure/factorExposure_2018-05-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0132293874580587</v>
+        <v>0.0183872433866737</v>
       </c>
       <c r="C2">
-        <v>-0.02624974920943288</v>
+        <v>-0.01669759282629096</v>
       </c>
       <c r="D2">
-        <v>0.009993892289434644</v>
+        <v>0.03050047209373766</v>
       </c>
       <c r="E2">
-        <v>0.01368225223239583</v>
+        <v>-0.01599998411535879</v>
       </c>
       <c r="F2">
-        <v>0.1153433220093617</v>
+        <v>0.00538845346368556</v>
       </c>
       <c r="G2">
-        <v>0.07098536667305079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04600730908950118</v>
+      </c>
+      <c r="H2">
+        <v>-0.04865574806719134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08815056514579772</v>
+        <v>0.07958937681961691</v>
       </c>
       <c r="C3">
-        <v>-0.01411905551981425</v>
+        <v>0.01521571222109358</v>
       </c>
       <c r="D3">
-        <v>0.06841852451189555</v>
+        <v>0.06092989857062355</v>
       </c>
       <c r="E3">
-        <v>0.09197799217066711</v>
+        <v>-0.01223557947107664</v>
       </c>
       <c r="F3">
-        <v>0.406779413978399</v>
+        <v>-0.01582209187108033</v>
       </c>
       <c r="G3">
-        <v>0.239062727806123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1779430965159547</v>
+      </c>
+      <c r="H3">
+        <v>-0.1523271068069311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04118143056368742</v>
+        <v>0.04610384826267843</v>
       </c>
       <c r="C4">
-        <v>0.0005274154364115772</v>
+        <v>-0.00130216039729758</v>
       </c>
       <c r="D4">
-        <v>8.091726668038951e-05</v>
+        <v>0.0584158934459034</v>
       </c>
       <c r="E4">
-        <v>-0.04772098427462539</v>
+        <v>0.01868477046434338</v>
       </c>
       <c r="F4">
-        <v>0.08147199762298488</v>
+        <v>0.04581569864971402</v>
       </c>
       <c r="G4">
-        <v>0.0421541096213842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04025417407359028</v>
+      </c>
+      <c r="H4">
+        <v>-0.05890749325843309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02976326828737788</v>
+        <v>0.02725489306726221</v>
       </c>
       <c r="C6">
-        <v>-0.009187275294673586</v>
+        <v>0.001558276433590183</v>
       </c>
       <c r="D6">
-        <v>0.007511810734171015</v>
+        <v>0.05991838731440798</v>
       </c>
       <c r="E6">
-        <v>-0.02289786948973358</v>
+        <v>0.00404195137742309</v>
       </c>
       <c r="F6">
-        <v>0.01316750999070852</v>
+        <v>0.03078681566733051</v>
       </c>
       <c r="G6">
-        <v>-0.01519314010027487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01057922019994908</v>
+      </c>
+      <c r="H6">
+        <v>-0.06266822094205372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0186113225651818</v>
+        <v>0.02141314063745503</v>
       </c>
       <c r="C7">
-        <v>-0.001610798751764035</v>
+        <v>-0.0007633944153133679</v>
       </c>
       <c r="D7">
-        <v>0.01707069090501796</v>
+        <v>0.03091000005437056</v>
       </c>
       <c r="E7">
-        <v>-0.0249407501024844</v>
+        <v>0.04211480349366607</v>
       </c>
       <c r="F7">
-        <v>0.05202804337360429</v>
+        <v>0.002728319182599143</v>
       </c>
       <c r="G7">
-        <v>0.0663548295499426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02500208417114814</v>
+      </c>
+      <c r="H7">
+        <v>-0.03936292271188088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01554352222818418</v>
+        <v>0.006699831989326618</v>
       </c>
       <c r="C8">
-        <v>-0.008995995448175097</v>
+        <v>0.002946476360294951</v>
       </c>
       <c r="D8">
-        <v>0.01214802103234959</v>
+        <v>0.01427021049670215</v>
       </c>
       <c r="E8">
-        <v>-0.03486214629345193</v>
+        <v>0.005569780267061675</v>
       </c>
       <c r="F8">
-        <v>0.1026755459432519</v>
+        <v>0.01959433476344791</v>
       </c>
       <c r="G8">
-        <v>0.05191394283715128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04224799642705014</v>
+      </c>
+      <c r="H8">
+        <v>-0.04335872503528398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03107174683088183</v>
+        <v>0.03601484644681472</v>
       </c>
       <c r="C9">
-        <v>-0.005239076012049169</v>
+        <v>0.001189804812169444</v>
       </c>
       <c r="D9">
-        <v>0.008158389335405192</v>
+        <v>0.041904245328147</v>
       </c>
       <c r="E9">
-        <v>-0.03548559262364791</v>
+        <v>0.007060301116600694</v>
       </c>
       <c r="F9">
-        <v>0.09753492843679235</v>
+        <v>0.02178404507610409</v>
       </c>
       <c r="G9">
-        <v>0.04823876937438939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04573430284276687</v>
+      </c>
+      <c r="H9">
+        <v>-0.05673720607746132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03711789979212127</v>
+        <v>0.1058228933936816</v>
       </c>
       <c r="C10">
-        <v>0.0695063997919273</v>
+        <v>0.0004192280357313294</v>
       </c>
       <c r="D10">
-        <v>-0.0763315123820639</v>
+        <v>-0.1662760558511157</v>
       </c>
       <c r="E10">
-        <v>0.1254449222098648</v>
+        <v>-0.001284368585181126</v>
       </c>
       <c r="F10">
-        <v>0.04784631026797508</v>
+        <v>-0.03593115141396828</v>
       </c>
       <c r="G10">
-        <v>0.01658465476339119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03288160353029901</v>
+      </c>
+      <c r="H10">
+        <v>-0.002827670591231341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03092112124192187</v>
+        <v>0.02244634468638251</v>
       </c>
       <c r="C11">
-        <v>-0.02198433638087279</v>
+        <v>0.0125436290478139</v>
       </c>
       <c r="D11">
-        <v>0.01489635024389794</v>
+        <v>0.04618190498380783</v>
       </c>
       <c r="E11">
-        <v>-0.02729752844704747</v>
+        <v>-0.001627534466457182</v>
       </c>
       <c r="F11">
-        <v>0.05312980668532741</v>
+        <v>0.01210768103088486</v>
       </c>
       <c r="G11">
-        <v>0.02204685398358151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02719668929011302</v>
+      </c>
+      <c r="H11">
+        <v>-0.05009682783378232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03934758513248909</v>
+        <v>0.02741349065508759</v>
       </c>
       <c r="C12">
-        <v>-0.02553227956294315</v>
+        <v>0.009014156540532522</v>
       </c>
       <c r="D12">
-        <v>0.008128541234330992</v>
+        <v>0.04436555093455875</v>
       </c>
       <c r="E12">
-        <v>-0.0349073357954193</v>
+        <v>0.008072268594412848</v>
       </c>
       <c r="F12">
-        <v>0.02588172702659607</v>
+        <v>0.01503837597293819</v>
       </c>
       <c r="G12">
-        <v>0.01320429940486638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.007474413822141326</v>
+      </c>
+      <c r="H12">
+        <v>-0.02148169211402832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01356235658623724</v>
+        <v>0.02872372602371925</v>
       </c>
       <c r="C13">
-        <v>-0.02057354503048985</v>
+        <v>-0.012350973564973</v>
       </c>
       <c r="D13">
-        <v>-0.004033204874836732</v>
+        <v>0.01918337510920346</v>
       </c>
       <c r="E13">
-        <v>0.000608355196647444</v>
+        <v>-0.01311423978087113</v>
       </c>
       <c r="F13">
-        <v>0.08745117147558241</v>
+        <v>0.02253471567221765</v>
       </c>
       <c r="G13">
-        <v>0.04537037372037035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06145137635685482</v>
+      </c>
+      <c r="H13">
+        <v>-0.07530958276757488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01476966047136406</v>
+        <v>0.01884009988807397</v>
       </c>
       <c r="C14">
-        <v>-0.0001088694649058236</v>
+        <v>-3.638831601682499e-05</v>
       </c>
       <c r="D14">
-        <v>0.00100127362403443</v>
+        <v>0.01215856790337717</v>
       </c>
       <c r="E14">
-        <v>-0.02848268755899759</v>
+        <v>0.01283064346974207</v>
       </c>
       <c r="F14">
-        <v>0.06095796514452023</v>
+        <v>0.01502800015934062</v>
       </c>
       <c r="G14">
-        <v>0.05079744819725143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0397047353219696</v>
+      </c>
+      <c r="H14">
+        <v>-0.01351859052758226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0294467247203416</v>
+        <v>0.02408029720549579</v>
       </c>
       <c r="C16">
-        <v>-0.02814030973740205</v>
+        <v>0.01186583340637435</v>
       </c>
       <c r="D16">
-        <v>0.0125413689195636</v>
+        <v>0.03757205466673601</v>
       </c>
       <c r="E16">
-        <v>-0.02888810312459038</v>
+        <v>0.00181758162492048</v>
       </c>
       <c r="F16">
-        <v>0.05137790867357692</v>
+        <v>0.0156432701299985</v>
       </c>
       <c r="G16">
-        <v>0.02054286053014925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02236792990716648</v>
+      </c>
+      <c r="H16">
+        <v>-0.03742803540012983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03167863862456048</v>
+        <v>0.0310563884225956</v>
       </c>
       <c r="C19">
-        <v>-0.0220109429738399</v>
+        <v>0.001473020921613882</v>
       </c>
       <c r="D19">
-        <v>0.0150550081563009</v>
+        <v>0.03790450856510093</v>
       </c>
       <c r="E19">
-        <v>-0.02255965085559883</v>
+        <v>0.004263707897841487</v>
       </c>
       <c r="F19">
-        <v>0.1046714828073737</v>
+        <v>0.02577791133074557</v>
       </c>
       <c r="G19">
-        <v>0.056064881638422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.0568762958109472</v>
+      </c>
+      <c r="H19">
+        <v>-0.06322945081270713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003823321718865642</v>
+        <v>0.01122450927298731</v>
       </c>
       <c r="C20">
-        <v>0.001757759604702</v>
+        <v>-0.004162191092323969</v>
       </c>
       <c r="D20">
-        <v>0.001416808851784603</v>
+        <v>0.02098181752780956</v>
       </c>
       <c r="E20">
-        <v>-0.02059234766326329</v>
+        <v>0.003801610102777792</v>
       </c>
       <c r="F20">
-        <v>0.08087677313942757</v>
+        <v>0.01468887338922485</v>
       </c>
       <c r="G20">
-        <v>0.07870285726613428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05282881292509743</v>
+      </c>
+      <c r="H20">
+        <v>-0.02812609432425813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0003015076437415161</v>
+        <v>0.01728360723094823</v>
       </c>
       <c r="C21">
-        <v>0.01552351435176956</v>
+        <v>-0.005447631226376264</v>
       </c>
       <c r="D21">
-        <v>0.02542606298795909</v>
+        <v>0.0226199649450042</v>
       </c>
       <c r="E21">
-        <v>-0.02974029891335848</v>
+        <v>0.01816641487516406</v>
       </c>
       <c r="F21">
-        <v>0.04014661691547636</v>
+        <v>0.008390852393972095</v>
       </c>
       <c r="G21">
-        <v>0.01455919698333438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04775952396540781</v>
+      </c>
+      <c r="H21">
+        <v>-0.04240111900110748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02758764528259019</v>
+        <v>0.01948691568733155</v>
       </c>
       <c r="C24">
-        <v>-0.01921821439423648</v>
+        <v>0.006505250105846843</v>
       </c>
       <c r="D24">
-        <v>0.002628332886157604</v>
+        <v>0.04138982958139972</v>
       </c>
       <c r="E24">
-        <v>-0.01579473615972775</v>
+        <v>0.0002130285366656862</v>
       </c>
       <c r="F24">
-        <v>0.04988478911546789</v>
+        <v>0.01078123449260126</v>
       </c>
       <c r="G24">
-        <v>0.01932393267092488</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01708227050458038</v>
+      </c>
+      <c r="H24">
+        <v>-0.04631766618495664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02873425355401305</v>
+        <v>0.03175350343632385</v>
       </c>
       <c r="C25">
-        <v>-0.01633269149440118</v>
+        <v>0.004463524764146695</v>
       </c>
       <c r="D25">
-        <v>0.01814495171576233</v>
+        <v>0.0425387569271606</v>
       </c>
       <c r="E25">
-        <v>-0.02589573482042951</v>
+        <v>0.005473071874486288</v>
       </c>
       <c r="F25">
-        <v>0.05227350585455627</v>
+        <v>0.01839767188325228</v>
       </c>
       <c r="G25">
-        <v>0.01193643904451999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02140534612399948</v>
+      </c>
+      <c r="H25">
+        <v>-0.04291526125157555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01784137284074631</v>
+        <v>0.01731466544469739</v>
       </c>
       <c r="C26">
-        <v>-0.01583462692379368</v>
+        <v>-0.01814490213471439</v>
       </c>
       <c r="D26">
-        <v>0.01836737984285728</v>
+        <v>0.008321788206162035</v>
       </c>
       <c r="E26">
-        <v>0.001673628193535343</v>
+        <v>-4.997882577341237e-05</v>
       </c>
       <c r="F26">
-        <v>0.06892815362749539</v>
+        <v>0.002618964607556915</v>
       </c>
       <c r="G26">
-        <v>0.04526934649900752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02975865942825476</v>
+      </c>
+      <c r="H26">
+        <v>-0.02454239448505224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05224873524892946</v>
+        <v>0.02071117306504939</v>
       </c>
       <c r="C27">
-        <v>-0.01700135045213498</v>
+        <v>0.007921184433184006</v>
       </c>
       <c r="D27">
-        <v>-0.02171952997654676</v>
+        <v>0.01398226780472895</v>
       </c>
       <c r="E27">
-        <v>-0.03788665258193036</v>
+        <v>0.002899443923222869</v>
       </c>
       <c r="F27">
-        <v>0.04324468831633217</v>
+        <v>0.01209648130338757</v>
       </c>
       <c r="G27">
-        <v>0.04997486740450242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.00954427559347585</v>
+      </c>
+      <c r="H27">
+        <v>0.004197766597133125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06675176471975428</v>
+        <v>0.1566035835188938</v>
       </c>
       <c r="C28">
-        <v>0.09619228040346409</v>
+        <v>-0.008632230038296862</v>
       </c>
       <c r="D28">
-        <v>-0.1050567414986572</v>
+        <v>-0.2180948079807725</v>
       </c>
       <c r="E28">
-        <v>0.1560288751773441</v>
+        <v>0.007659126728219587</v>
       </c>
       <c r="F28">
-        <v>0.04465426072914681</v>
+        <v>-0.03163312933009778</v>
       </c>
       <c r="G28">
-        <v>0.01467980726824338</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02031483286240919</v>
+      </c>
+      <c r="H28">
+        <v>0.007396345500664076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01970735494590133</v>
+        <v>0.02376775020412255</v>
       </c>
       <c r="C29">
-        <v>0.0004708190590919211</v>
+        <v>0.001648813579748425</v>
       </c>
       <c r="D29">
-        <v>0.0005061120698379999</v>
+        <v>0.01214388084469934</v>
       </c>
       <c r="E29">
-        <v>-0.03619773550664961</v>
+        <v>0.01330177214409458</v>
       </c>
       <c r="F29">
-        <v>0.0601731722561621</v>
+        <v>0.01677358818507589</v>
       </c>
       <c r="G29">
-        <v>0.03790719180919892</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03869900389961694</v>
+      </c>
+      <c r="H29">
+        <v>-0.005274383359088735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08003939725939616</v>
+        <v>0.05238080618819509</v>
       </c>
       <c r="C30">
-        <v>-0.04778751071509858</v>
+        <v>0.002144821750461455</v>
       </c>
       <c r="D30">
-        <v>0.0002317489889228558</v>
+        <v>0.08985179955891243</v>
       </c>
       <c r="E30">
-        <v>-0.05939702365673977</v>
+        <v>-0.03268747085890633</v>
       </c>
       <c r="F30">
-        <v>0.1101961727616564</v>
+        <v>0.048562787947924</v>
       </c>
       <c r="G30">
-        <v>0.05888622194045444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05914215168218391</v>
+      </c>
+      <c r="H30">
+        <v>-0.07882660389695839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05737872609505035</v>
+        <v>0.05014683454148903</v>
       </c>
       <c r="C31">
-        <v>-0.03280621038865268</v>
+        <v>0.01167878382436383</v>
       </c>
       <c r="D31">
-        <v>0.003406221504092828</v>
+        <v>0.02460295983211094</v>
       </c>
       <c r="E31">
-        <v>-0.01188655195508333</v>
+        <v>-0.004971898973517102</v>
       </c>
       <c r="F31">
-        <v>0.05214985280898321</v>
+        <v>0.006254194722439307</v>
       </c>
       <c r="G31">
-        <v>0.04902055082918631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01912552302362471</v>
+      </c>
+      <c r="H31">
+        <v>-0.003049439174847214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01590776586395002</v>
+        <v>0.01122514138845142</v>
       </c>
       <c r="C32">
-        <v>-0.003688305721985355</v>
+        <v>0.01389728575294911</v>
       </c>
       <c r="D32">
-        <v>0.01757724598052184</v>
+        <v>0.0107812923423587</v>
       </c>
       <c r="E32">
-        <v>-0.06920134121965661</v>
+        <v>0.02872557584513219</v>
       </c>
       <c r="F32">
-        <v>0.07884923149441844</v>
+        <v>0.03990195791266986</v>
       </c>
       <c r="G32">
-        <v>0.0425248042061199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03015038876656151</v>
+      </c>
+      <c r="H32">
+        <v>-0.0570152635381735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04181066928706635</v>
+        <v>0.03474752491364957</v>
       </c>
       <c r="C33">
-        <v>-0.03650696564642123</v>
+        <v>0.002158399397089594</v>
       </c>
       <c r="D33">
-        <v>0.03666663567848617</v>
+        <v>0.0395350034336698</v>
       </c>
       <c r="E33">
-        <v>-0.02236391439049852</v>
+        <v>-0.02187165831114554</v>
       </c>
       <c r="F33">
-        <v>0.08492550271332672</v>
+        <v>0.0002239905551128108</v>
       </c>
       <c r="G33">
-        <v>0.05399205034473466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04722486820904283</v>
+      </c>
+      <c r="H33">
+        <v>-0.05014632293609728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02700969148114696</v>
+        <v>0.02948740090561695</v>
       </c>
       <c r="C34">
-        <v>-0.02223003811612835</v>
+        <v>0.02022253979419426</v>
       </c>
       <c r="D34">
-        <v>0.01188981024239356</v>
+        <v>0.03852072470412977</v>
       </c>
       <c r="E34">
-        <v>-0.03272629870387151</v>
+        <v>0.01176137083255044</v>
       </c>
       <c r="F34">
-        <v>0.05783273575735862</v>
+        <v>0.01819254303813136</v>
       </c>
       <c r="G34">
-        <v>0.01843340510198664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01377893626838946</v>
+      </c>
+      <c r="H34">
+        <v>-0.03711926567669095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01384035083633718</v>
+        <v>0.01833640942656364</v>
       </c>
       <c r="C36">
-        <v>0.0004298471721557361</v>
+        <v>-0.005829870119772314</v>
       </c>
       <c r="D36">
-        <v>0.006112462647690754</v>
+        <v>0.003955914079929037</v>
       </c>
       <c r="E36">
-        <v>-0.02161878586013551</v>
+        <v>0.007660520832916985</v>
       </c>
       <c r="F36">
-        <v>0.0392204034164589</v>
+        <v>0.002726292183487414</v>
       </c>
       <c r="G36">
-        <v>0.03061569035047269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02126008500682629</v>
+      </c>
+      <c r="H36">
+        <v>-0.0162678695515997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00123571305052635</v>
+        <v>0.02656790083790617</v>
       </c>
       <c r="C38">
-        <v>0.001300522253062506</v>
+        <v>0.01651456362508363</v>
       </c>
       <c r="D38">
-        <v>0.01537327278884909</v>
+        <v>0.01178000556287239</v>
       </c>
       <c r="E38">
-        <v>0.03119169533661939</v>
+        <v>-0.0003580724743988237</v>
       </c>
       <c r="F38">
-        <v>0.03801108346042309</v>
+        <v>0.00920894132671321</v>
       </c>
       <c r="G38">
-        <v>0.01255261906930536</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02275963969375586</v>
+      </c>
+      <c r="H38">
+        <v>-0.04503551671965059</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02911943423341501</v>
+        <v>0.01828039606207128</v>
       </c>
       <c r="C39">
-        <v>-0.03842550602934538</v>
+        <v>0.009906505297444836</v>
       </c>
       <c r="D39">
-        <v>0.01912842339720921</v>
+        <v>0.08633098035403583</v>
       </c>
       <c r="E39">
-        <v>-0.03309756801180997</v>
+        <v>-0.007953921334869688</v>
       </c>
       <c r="F39">
-        <v>0.06950810811679201</v>
+        <v>0.01794723842817712</v>
       </c>
       <c r="G39">
-        <v>0.02636322316358164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03915374719821575</v>
+      </c>
+      <c r="H39">
+        <v>-0.07831176382156801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03178118335495696</v>
+        <v>0.03093089793016273</v>
       </c>
       <c r="C40">
-        <v>-0.06456559384758176</v>
+        <v>0.002552554103348023</v>
       </c>
       <c r="D40">
-        <v>-0.01655248735917144</v>
+        <v>0.03128725101676405</v>
       </c>
       <c r="E40">
-        <v>-0.005046023694341259</v>
+        <v>-0.02542476593533228</v>
       </c>
       <c r="F40">
-        <v>0.09134261639680569</v>
+        <v>0.03500581135385852</v>
       </c>
       <c r="G40">
-        <v>0.04511149482407793</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0217067206460853</v>
+      </c>
+      <c r="H40">
+        <v>-0.06599229351263032</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001001315762577535</v>
+        <v>0.01157976377602721</v>
       </c>
       <c r="C41">
-        <v>-0.0004853450814048657</v>
+        <v>-0.003175219174007656</v>
       </c>
       <c r="D41">
-        <v>0.009871557628221726</v>
+        <v>-0.01457041854824356</v>
       </c>
       <c r="E41">
-        <v>-0.0007457616695678447</v>
+        <v>-0.0004422481675124259</v>
       </c>
       <c r="F41">
-        <v>0.01564474528775814</v>
+        <v>-0.00323996740310269</v>
       </c>
       <c r="G41">
-        <v>0.05297921794348311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.001438144787999231</v>
+      </c>
+      <c r="H41">
+        <v>0.005290548441869066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3471488800771098</v>
+        <v>0.164415478547372</v>
       </c>
       <c r="C42">
-        <v>0.04359443884610657</v>
+        <v>-0.06223296315815027</v>
       </c>
       <c r="D42">
-        <v>0.7236155237478642</v>
+        <v>0.2401479932044712</v>
       </c>
       <c r="E42">
-        <v>0.4390117880126328</v>
+        <v>-0.2119999749224071</v>
       </c>
       <c r="F42">
-        <v>-0.3055787304270294</v>
+        <v>-0.8986578722611221</v>
       </c>
       <c r="G42">
-        <v>0.170536837326034</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1955359269340122</v>
+      </c>
+      <c r="H42">
+        <v>-0.001912730850367518</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>6.489808347733495e-05</v>
+        <v>0.01462533298278916</v>
       </c>
       <c r="C43">
-        <v>-0.0005355998547988268</v>
+        <v>-0.003074367978765727</v>
       </c>
       <c r="D43">
-        <v>0.01130952379806193</v>
+        <v>-0.01258168774084767</v>
       </c>
       <c r="E43">
-        <v>-7.661074037645802e-05</v>
+        <v>-0.003558064603718461</v>
       </c>
       <c r="F43">
-        <v>0.03383695746692322</v>
+        <v>-0.00425825292254487</v>
       </c>
       <c r="G43">
-        <v>0.04814368947263378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.002917557632871751</v>
+      </c>
+      <c r="H43">
+        <v>-0.008321506420547119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01595135142483317</v>
+        <v>0.0198691656931187</v>
       </c>
       <c r="C44">
-        <v>0.001993570974111473</v>
+        <v>0.006516850430050927</v>
       </c>
       <c r="D44">
-        <v>0.01287803070716729</v>
+        <v>0.0343860584413585</v>
       </c>
       <c r="E44">
-        <v>-0.0004904326338951856</v>
+        <v>0.006013898503084867</v>
       </c>
       <c r="F44">
-        <v>0.1149675546001334</v>
+        <v>0.002606930752401406</v>
       </c>
       <c r="G44">
-        <v>0.08103129933048386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04240185204641306</v>
+      </c>
+      <c r="H44">
+        <v>-0.06643850210518198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01911998979653397</v>
+        <v>0.01588897588548863</v>
       </c>
       <c r="C46">
-        <v>-0.01600676114498237</v>
+        <v>-0.004435671138308281</v>
       </c>
       <c r="D46">
-        <v>0.02092468857921195</v>
+        <v>0.01291092744842744</v>
       </c>
       <c r="E46">
-        <v>-0.03549963063645033</v>
+        <v>-0.001351422894979408</v>
       </c>
       <c r="F46">
-        <v>0.07752117271963059</v>
+        <v>0.01155781040425238</v>
       </c>
       <c r="G46">
-        <v>0.05501323790296891</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04393164033665884</v>
+      </c>
+      <c r="H46">
+        <v>-0.007745143979731313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09068691153689321</v>
+        <v>0.07355575504436374</v>
       </c>
       <c r="C47">
-        <v>-0.03066861825209749</v>
+        <v>0.02885895092391539</v>
       </c>
       <c r="D47">
-        <v>-0.004268261767725138</v>
+        <v>0.04838599066415188</v>
       </c>
       <c r="E47">
-        <v>-0.02922678269148027</v>
+        <v>0.001645867608495891</v>
       </c>
       <c r="F47">
-        <v>0.04249566002847895</v>
+        <v>0.01479464127787509</v>
       </c>
       <c r="G47">
-        <v>0.08228529742951171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.00830290327492075</v>
+      </c>
+      <c r="H47">
+        <v>0.0233072380931622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01775518709984321</v>
+        <v>0.02109365732303698</v>
       </c>
       <c r="C48">
-        <v>-0.008010613067514032</v>
+        <v>0.005770394191103931</v>
       </c>
       <c r="D48">
-        <v>0.01160490915948221</v>
+        <v>0.01105231263280706</v>
       </c>
       <c r="E48">
-        <v>-0.02021523485801616</v>
+        <v>0.0002309600319000475</v>
       </c>
       <c r="F48">
-        <v>0.04208844126381063</v>
+        <v>0.007173913913421907</v>
       </c>
       <c r="G48">
-        <v>0.02321720186148081</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02303748973856124</v>
+      </c>
+      <c r="H48">
+        <v>-0.0182089968804834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08612916935473283</v>
+        <v>0.0715544451000142</v>
       </c>
       <c r="C50">
-        <v>-0.02993136373313891</v>
+        <v>0.02581581908869889</v>
       </c>
       <c r="D50">
-        <v>0.01944645717015176</v>
+        <v>0.04734998022849597</v>
       </c>
       <c r="E50">
-        <v>-0.02893849581247942</v>
+        <v>0.01441535920221516</v>
       </c>
       <c r="F50">
-        <v>0.04633258739687595</v>
+        <v>0.005548211402702327</v>
       </c>
       <c r="G50">
-        <v>0.0339389590297377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.00644625708890706</v>
+      </c>
+      <c r="H50">
+        <v>0.005731100059699882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01531478163095222</v>
+        <v>0.02080699452330215</v>
       </c>
       <c r="C51">
-        <v>0.005167832670634327</v>
+        <v>-0.0003980852211855451</v>
       </c>
       <c r="D51">
-        <v>-0.004594025001636484</v>
+        <v>0.006975577203399899</v>
       </c>
       <c r="E51">
-        <v>0.0142482306751146</v>
+        <v>0.005773780984865598</v>
       </c>
       <c r="F51">
-        <v>0.09661388614392501</v>
+        <v>0.004448930334216237</v>
       </c>
       <c r="G51">
-        <v>0.06413118647936369</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03831270056541067</v>
+      </c>
+      <c r="H51">
+        <v>-0.05094836645275756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09974010403975861</v>
+        <v>0.08804792338508889</v>
       </c>
       <c r="C53">
-        <v>-0.04145021993085535</v>
+        <v>0.03713947311624006</v>
       </c>
       <c r="D53">
-        <v>0.000957908980998059</v>
+        <v>0.08412908175564304</v>
       </c>
       <c r="E53">
-        <v>-0.04712836552549894</v>
+        <v>0.00414095497792214</v>
       </c>
       <c r="F53">
-        <v>-0.02581343411550799</v>
+        <v>0.028829530712522</v>
       </c>
       <c r="G53">
-        <v>0.01926452522549052</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03770359446843492</v>
+      </c>
+      <c r="H53">
+        <v>0.03576606905840811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01578018824547013</v>
+        <v>0.02852562975629777</v>
       </c>
       <c r="C54">
-        <v>0.002949589912855236</v>
+        <v>0.008212127569567495</v>
       </c>
       <c r="D54">
-        <v>-0.0002357208263780517</v>
+        <v>-0.01197998534917685</v>
       </c>
       <c r="E54">
-        <v>-0.02980024360759809</v>
+        <v>0.006610514044950155</v>
       </c>
       <c r="F54">
-        <v>0.05064275432233347</v>
+        <v>0.006909674325828536</v>
       </c>
       <c r="G54">
-        <v>0.04402552840023692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03854470904241874</v>
+      </c>
+      <c r="H54">
+        <v>-0.002059540969614122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1002335412657243</v>
+        <v>0.07398952705974915</v>
       </c>
       <c r="C55">
-        <v>-0.0219092566555356</v>
+        <v>0.03357398059895865</v>
       </c>
       <c r="D55">
-        <v>0.006864438619174417</v>
+        <v>0.07917207067333337</v>
       </c>
       <c r="E55">
-        <v>-0.06567236738945842</v>
+        <v>0.01288007176179815</v>
       </c>
       <c r="F55">
-        <v>-0.01634940203440036</v>
+        <v>0.02144239595529225</v>
       </c>
       <c r="G55">
-        <v>0.04639471515224657</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01551205504468515</v>
+      </c>
+      <c r="H55">
+        <v>0.04459562125037758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1419606900924671</v>
+        <v>0.12179620559956</v>
       </c>
       <c r="C56">
-        <v>-0.05605652431737437</v>
+        <v>0.05523030325594639</v>
       </c>
       <c r="D56">
-        <v>-0.03861799461720879</v>
+        <v>0.1018359569377349</v>
       </c>
       <c r="E56">
-        <v>-0.0753104257999402</v>
+        <v>0.005669262317351658</v>
       </c>
       <c r="F56">
-        <v>-0.05956456293998176</v>
+        <v>0.05316934061411548</v>
       </c>
       <c r="G56">
-        <v>-0.02599537427729523</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07242061102353067</v>
+      </c>
+      <c r="H56">
+        <v>0.06035299699074178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04361937441088686</v>
+        <v>0.03677138231855535</v>
       </c>
       <c r="C57">
-        <v>-0.02082447644692066</v>
+        <v>-0.01094787182091791</v>
       </c>
       <c r="D57">
-        <v>0.01122789537623263</v>
+        <v>0.03266218098309258</v>
       </c>
       <c r="E57">
-        <v>0.01346828342888752</v>
+        <v>-0.01124529553344084</v>
       </c>
       <c r="F57">
-        <v>0.0565566784544418</v>
+        <v>0.008564638873874967</v>
       </c>
       <c r="G57">
-        <v>0.03749015844049616</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.07242165721228032</v>
+      </c>
+      <c r="H57">
+        <v>-0.0506072275808245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2153790306036157</v>
+        <v>0.1357290185360266</v>
       </c>
       <c r="C58">
-        <v>-0.1194203949493019</v>
+        <v>0.04809426990127683</v>
       </c>
       <c r="D58">
-        <v>0.09821801188573892</v>
+        <v>0.1595515519756771</v>
       </c>
       <c r="E58">
-        <v>-0.08102717416026405</v>
+        <v>-0.2173375762271439</v>
       </c>
       <c r="F58">
-        <v>0.3996889091030164</v>
+        <v>-0.06977077623641703</v>
       </c>
       <c r="G58">
-        <v>-0.03532812520398185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8119938468387873</v>
+      </c>
+      <c r="H58">
+        <v>0.3914185047268862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05706550670200013</v>
+        <v>0.1681642105402132</v>
       </c>
       <c r="C59">
-        <v>0.04974184531209629</v>
+        <v>4.616447925680158e-05</v>
       </c>
       <c r="D59">
-        <v>-0.1190628240188019</v>
+        <v>-0.2171502098450815</v>
       </c>
       <c r="E59">
-        <v>0.1427928700785546</v>
+        <v>-0.01164245392299982</v>
       </c>
       <c r="F59">
-        <v>0.06399692404872086</v>
+        <v>-0.003203478119343317</v>
       </c>
       <c r="G59">
-        <v>-0.02600543559820342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02081713666212761</v>
+      </c>
+      <c r="H59">
+        <v>-0.02746745843877161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1519036185652836</v>
+        <v>0.1915356107762779</v>
       </c>
       <c r="C60">
-        <v>-0.08057707443672912</v>
+        <v>0.02836832505231916</v>
       </c>
       <c r="D60">
-        <v>0.01477114754995048</v>
+        <v>0.02674689845530815</v>
       </c>
       <c r="E60">
-        <v>0.09674905361797952</v>
+        <v>-0.05240034182165017</v>
       </c>
       <c r="F60">
-        <v>0.1694599049932596</v>
+        <v>0.05351624335529337</v>
       </c>
       <c r="G60">
-        <v>-0.3140361920026076</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02450532992544694</v>
+      </c>
+      <c r="H60">
+        <v>-0.3696237719517559</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02106886610717654</v>
+        <v>0.02296989890728794</v>
       </c>
       <c r="C61">
-        <v>-0.0237840581794886</v>
+        <v>0.01182631198075011</v>
       </c>
       <c r="D61">
-        <v>0.01388619224724033</v>
+        <v>0.05377148020507549</v>
       </c>
       <c r="E61">
-        <v>-0.02245210015570571</v>
+        <v>0.001624778549064377</v>
       </c>
       <c r="F61">
-        <v>0.0341815875918802</v>
+        <v>0.02158952168040667</v>
       </c>
       <c r="G61">
-        <v>0.009814604623175094</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02544752754480414</v>
+      </c>
+      <c r="H61">
+        <v>-0.05888008973892746</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00868555675869964</v>
+        <v>0.01269563030614354</v>
       </c>
       <c r="C63">
-        <v>-0.01658682648345852</v>
+        <v>-0.000757989293507621</v>
       </c>
       <c r="D63">
-        <v>0.02012094349423875</v>
+        <v>0.02240184017945926</v>
       </c>
       <c r="E63">
-        <v>-0.02418568597679638</v>
+        <v>0.004538370749533652</v>
       </c>
       <c r="F63">
-        <v>0.01547250030055465</v>
+        <v>0.01129734553416495</v>
       </c>
       <c r="G63">
-        <v>0.06937322161467857</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01716398907448475</v>
+      </c>
+      <c r="H63">
+        <v>-0.01309278044728388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03710641253360603</v>
+        <v>0.04116197733604991</v>
       </c>
       <c r="C64">
-        <v>0.004007287237632553</v>
+        <v>0.01131468555208102</v>
       </c>
       <c r="D64">
-        <v>0.00443340684116556</v>
+        <v>0.03904938757664576</v>
       </c>
       <c r="E64">
-        <v>-0.05390999951272111</v>
+        <v>0.01152829200811623</v>
       </c>
       <c r="F64">
-        <v>0.04484421561767697</v>
+        <v>0.004183250850571837</v>
       </c>
       <c r="G64">
-        <v>0.05643910302141845</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.006356293412834141</v>
+      </c>
+      <c r="H64">
+        <v>-0.04200290736449493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03323047667266491</v>
+        <v>0.03874921596312696</v>
       </c>
       <c r="C65">
-        <v>-0.0111348033222689</v>
+        <v>0.004272127418900655</v>
       </c>
       <c r="D65">
-        <v>0.007469475617998787</v>
+        <v>0.07161039576183155</v>
       </c>
       <c r="E65">
-        <v>-0.02488122634210345</v>
+        <v>0.007555007129259016</v>
       </c>
       <c r="F65">
-        <v>0.007964835065971974</v>
+        <v>0.03904179251018901</v>
       </c>
       <c r="G65">
-        <v>-0.02125789822066751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.005106320515330866</v>
+      </c>
+      <c r="H65">
+        <v>-0.07388197435139832</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03273947027159394</v>
+        <v>0.02789761386672745</v>
       </c>
       <c r="C66">
-        <v>-0.05169751891397475</v>
+        <v>0.0177274958197208</v>
       </c>
       <c r="D66">
-        <v>0.01585289848767265</v>
+        <v>0.1066133053124583</v>
       </c>
       <c r="E66">
-        <v>-0.04370988532854331</v>
+        <v>-0.01011481376517507</v>
       </c>
       <c r="F66">
-        <v>0.05504092855836978</v>
+        <v>0.03935253368210622</v>
       </c>
       <c r="G66">
-        <v>0.008727738738055074</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03601677706286335</v>
+      </c>
+      <c r="H66">
+        <v>-0.08287792111363486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01009987433798575</v>
+        <v>0.0468760063336595</v>
       </c>
       <c r="C67">
-        <v>-0.005532591013758951</v>
+        <v>0.01835122440700813</v>
       </c>
       <c r="D67">
-        <v>0.004740869650645971</v>
+        <v>0.0124680773010188</v>
       </c>
       <c r="E67">
-        <v>0.03695065092842182</v>
+        <v>-0.003304957492498463</v>
       </c>
       <c r="F67">
-        <v>0.02027545483552946</v>
+        <v>0.01877311146389381</v>
       </c>
       <c r="G67">
-        <v>0.005848670922546849</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01253617011445097</v>
+      </c>
+      <c r="H67">
+        <v>-0.04559875903951188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07472840863697185</v>
+        <v>0.1629253177666905</v>
       </c>
       <c r="C68">
-        <v>0.06711068837262107</v>
+        <v>-0.02413911939092576</v>
       </c>
       <c r="D68">
-        <v>-0.1306751025437969</v>
+        <v>-0.2333706170261494</v>
       </c>
       <c r="E68">
-        <v>0.1473098823010986</v>
+        <v>-0.007441023870403595</v>
       </c>
       <c r="F68">
-        <v>0.04862032385832445</v>
+        <v>-0.04045162509754238</v>
       </c>
       <c r="G68">
-        <v>-0.0590813582858947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02885868524741633</v>
+      </c>
+      <c r="H68">
+        <v>0.04942380767502887</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06430040696102782</v>
+        <v>0.06136060064073829</v>
       </c>
       <c r="C69">
-        <v>-0.04319181866544868</v>
+        <v>0.02962901927576737</v>
       </c>
       <c r="D69">
-        <v>-0.01546037286047706</v>
+        <v>0.04511180987098821</v>
       </c>
       <c r="E69">
-        <v>-0.02177592953302489</v>
+        <v>0.0002512004955183833</v>
       </c>
       <c r="F69">
-        <v>0.03109701316010867</v>
+        <v>0.02901279043863448</v>
       </c>
       <c r="G69">
-        <v>0.0724066615624481</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01216906738892604</v>
+      </c>
+      <c r="H69">
+        <v>-0.007529630432259987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07889697523551559</v>
+        <v>0.1517534247773964</v>
       </c>
       <c r="C71">
-        <v>0.06844043622873087</v>
+        <v>-0.01078715386713615</v>
       </c>
       <c r="D71">
-        <v>-0.1157197483791869</v>
+        <v>-0.1936059737370121</v>
       </c>
       <c r="E71">
-        <v>0.2009125329207861</v>
+        <v>-0.01469108078216171</v>
       </c>
       <c r="F71">
-        <v>0.04375611381167275</v>
+        <v>-0.04803068541188139</v>
       </c>
       <c r="G71">
-        <v>0.01795934923192033</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03269829549274239</v>
+      </c>
+      <c r="H71">
+        <v>0.02265268813796845</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1139518859230746</v>
+        <v>0.07817403618311067</v>
       </c>
       <c r="C72">
-        <v>-0.06706793157166648</v>
+        <v>0.04018903792125291</v>
       </c>
       <c r="D72">
-        <v>-0.02564510579011701</v>
+        <v>0.07743689023756875</v>
       </c>
       <c r="E72">
-        <v>-0.0444578923016669</v>
+        <v>-0.01685543399090718</v>
       </c>
       <c r="F72">
-        <v>0.07365255146288567</v>
+        <v>0.06631751097622281</v>
       </c>
       <c r="G72">
-        <v>-0.1162781597184355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02170994406962086</v>
+      </c>
+      <c r="H72">
+        <v>-0.1323798211664972</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2153430577619139</v>
+        <v>0.2555755848882764</v>
       </c>
       <c r="C73">
-        <v>-0.1123707780347634</v>
+        <v>0.04296381458711985</v>
       </c>
       <c r="D73">
-        <v>0.01387141489482113</v>
+        <v>0.09207827519107604</v>
       </c>
       <c r="E73">
-        <v>0.1857092418982523</v>
+        <v>-0.09277596704875389</v>
       </c>
       <c r="F73">
-        <v>0.2060087852401253</v>
+        <v>0.06033966978791565</v>
       </c>
       <c r="G73">
-        <v>-0.4518261663835288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.04289887155768327</v>
+      </c>
+      <c r="H73">
+        <v>-0.4802469167254012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.134743359678236</v>
+        <v>0.1174892359271646</v>
       </c>
       <c r="C74">
-        <v>-0.0355515416953894</v>
+        <v>0.05434651722731488</v>
       </c>
       <c r="D74">
-        <v>-0.009367049121212955</v>
+        <v>0.107521890914247</v>
       </c>
       <c r="E74">
-        <v>-0.05180413708871005</v>
+        <v>0.008066559447647084</v>
       </c>
       <c r="F74">
-        <v>-0.07519763118013316</v>
+        <v>0.03744252171214509</v>
       </c>
       <c r="G74">
-        <v>0.009557078715757771</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05978142535986636</v>
+      </c>
+      <c r="H74">
+        <v>0.02667610209435392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2264425896166935</v>
+        <v>0.2275959638336843</v>
       </c>
       <c r="C75">
-        <v>-0.1027759676243582</v>
+        <v>0.1004106834398151</v>
       </c>
       <c r="D75">
-        <v>-0.07846004716729262</v>
+        <v>0.1616124887142409</v>
       </c>
       <c r="E75">
-        <v>-0.1119328524828473</v>
+        <v>-0.009617145669596906</v>
       </c>
       <c r="F75">
-        <v>-0.09044500637500213</v>
+        <v>0.09956171930121595</v>
       </c>
       <c r="G75">
-        <v>0.01984919441106297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.122498031991811</v>
+      </c>
+      <c r="H75">
+        <v>0.1368508102442307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2772098596608888</v>
+        <v>0.1917991546390808</v>
       </c>
       <c r="C76">
-        <v>-0.09322767364373524</v>
+        <v>0.09304408773781991</v>
       </c>
       <c r="D76">
-        <v>-0.1076106805732575</v>
+        <v>0.1613222134167741</v>
       </c>
       <c r="E76">
-        <v>-0.1661444372019794</v>
+        <v>0.03793791560917961</v>
       </c>
       <c r="F76">
-        <v>-0.1630230742939194</v>
+        <v>0.093905199953544</v>
       </c>
       <c r="G76">
-        <v>-0.007859010794091081</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1143697394071581</v>
+      </c>
+      <c r="H76">
+        <v>0.1331598590177878</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1275623184961021</v>
+        <v>0.07069754084503867</v>
       </c>
       <c r="C77">
-        <v>-0.06064931422104525</v>
+        <v>0.01477980925676433</v>
       </c>
       <c r="D77">
-        <v>0.09801834352991312</v>
+        <v>0.07835168944114573</v>
       </c>
       <c r="E77">
-        <v>-0.05264284449570782</v>
+        <v>-0.01617296900213424</v>
       </c>
       <c r="F77">
-        <v>0.1960203529244959</v>
+        <v>-0.0140456256485267</v>
       </c>
       <c r="G77">
-        <v>0.2546260904687592</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08187617150858287</v>
+      </c>
+      <c r="H77">
+        <v>-0.01355020385025715</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07511442573180861</v>
+        <v>0.0395904664169732</v>
       </c>
       <c r="C78">
-        <v>-0.04288284297686606</v>
+        <v>0.01540118077505857</v>
       </c>
       <c r="D78">
-        <v>0.05066480904019369</v>
+        <v>0.06736701766914942</v>
       </c>
       <c r="E78">
-        <v>-0.07428481284213163</v>
+        <v>0.0004173807303233146</v>
       </c>
       <c r="F78">
-        <v>0.1133888111785411</v>
+        <v>0.02157583994939081</v>
       </c>
       <c r="G78">
-        <v>0.03137116251769535</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06428236723532074</v>
+      </c>
+      <c r="H78">
+        <v>-0.08489672776184125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2650815034029186</v>
+        <v>0.1387417205145263</v>
       </c>
       <c r="C80">
-        <v>0.8695535395182447</v>
+        <v>0.03666165686096724</v>
       </c>
       <c r="D80">
-        <v>0.09604842550403508</v>
+        <v>0.0814696050073172</v>
       </c>
       <c r="E80">
-        <v>-0.3488928239768402</v>
+        <v>0.9338919692435882</v>
       </c>
       <c r="F80">
-        <v>0.06100367286415748</v>
+        <v>-0.2169911254940199</v>
       </c>
       <c r="G80">
-        <v>-0.1213657815011846</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1598165830065046</v>
+      </c>
+      <c r="H80">
+        <v>-0.003714222100028865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1756534334415517</v>
+        <v>0.1526314470426797</v>
       </c>
       <c r="C81">
-        <v>-0.07176005753672031</v>
+        <v>0.06589029458434834</v>
       </c>
       <c r="D81">
-        <v>-0.08042209518526927</v>
+        <v>0.1042231912089211</v>
       </c>
       <c r="E81">
-        <v>-0.09298096038800983</v>
+        <v>0.009979873554043769</v>
       </c>
       <c r="F81">
-        <v>-0.104663259918816</v>
+        <v>0.0672340035675059</v>
       </c>
       <c r="G81">
-        <v>-0.01112960078120718</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08088244952958451</v>
+      </c>
+      <c r="H81">
+        <v>0.08903865913141311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03269555811476185</v>
+        <v>0.03261609230108543</v>
       </c>
       <c r="C83">
-        <v>-0.02423509313404267</v>
+        <v>0.006515459092161027</v>
       </c>
       <c r="D83">
-        <v>0.01665398615965031</v>
+        <v>0.02420882793924613</v>
       </c>
       <c r="E83">
-        <v>0.003485914780038365</v>
+        <v>-0.008348209760709468</v>
       </c>
       <c r="F83">
-        <v>0.06885386228920871</v>
+        <v>0.01035310305560805</v>
       </c>
       <c r="G83">
-        <v>0.03522602853743146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04682696530972379</v>
+      </c>
+      <c r="H83">
+        <v>-0.04134745895153216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2605024512343901</v>
+        <v>0.2134742512951563</v>
       </c>
       <c r="C85">
-        <v>-0.09037470828790027</v>
+        <v>0.08504935752960445</v>
       </c>
       <c r="D85">
-        <v>-0.08103003114130558</v>
+        <v>0.1695740618142377</v>
       </c>
       <c r="E85">
-        <v>-0.1267655665701787</v>
+        <v>-0.003669293317652492</v>
       </c>
       <c r="F85">
-        <v>-0.1093346616808719</v>
+        <v>0.08286324730384553</v>
       </c>
       <c r="G85">
-        <v>0.02472825600993392</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.132968361997958</v>
+      </c>
+      <c r="H85">
+        <v>0.0966347202622385</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005001877660635255</v>
+        <v>0.02633574995707776</v>
       </c>
       <c r="C86">
-        <v>-0.0004404237785901043</v>
+        <v>0.004606608423348657</v>
       </c>
       <c r="D86">
-        <v>0.0331326247873022</v>
+        <v>0.03607120040131941</v>
       </c>
       <c r="E86">
-        <v>-0.02642848945171814</v>
+        <v>0.0005192078422335884</v>
       </c>
       <c r="F86">
-        <v>0.07775564908191315</v>
+        <v>-0.00215582132887953</v>
       </c>
       <c r="G86">
-        <v>0.06232652391331216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05633877559770448</v>
+      </c>
+      <c r="H86">
+        <v>-0.09400539782331928</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04227552638613169</v>
+        <v>0.02606194368585036</v>
       </c>
       <c r="C87">
-        <v>0.000532249568306895</v>
+        <v>0.00527754647054199</v>
       </c>
       <c r="D87">
-        <v>0.02309460541548479</v>
+        <v>0.0472449355478109</v>
       </c>
       <c r="E87">
-        <v>-0.01088113374602204</v>
+        <v>0.00384351655504478</v>
       </c>
       <c r="F87">
-        <v>0.1139522194209604</v>
+        <v>0.00563306974763794</v>
       </c>
       <c r="G87">
-        <v>0.0406225593552945</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08088671650221231</v>
+      </c>
+      <c r="H87">
+        <v>-0.08127489274202178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01208427087366648</v>
+        <v>0.0434849972168261</v>
       </c>
       <c r="C88">
-        <v>0.01096340435913967</v>
+        <v>-0.009301462227519612</v>
       </c>
       <c r="D88">
-        <v>-0.01321005645988895</v>
+        <v>0.0201210920920519</v>
       </c>
       <c r="E88">
-        <v>-0.01730575264281256</v>
+        <v>0.01256938361562392</v>
       </c>
       <c r="F88">
-        <v>0.001524021127630005</v>
+        <v>0.01939842357430598</v>
       </c>
       <c r="G88">
-        <v>0.06300481743334661</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001047892889900791</v>
+      </c>
+      <c r="H88">
+        <v>-0.01964192327965033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1105339373339507</v>
+        <v>0.2642374371958766</v>
       </c>
       <c r="C89">
-        <v>0.1020216000915324</v>
+        <v>-0.0214085961644439</v>
       </c>
       <c r="D89">
-        <v>-0.1969272523031669</v>
+        <v>-0.3466489269307105</v>
       </c>
       <c r="E89">
-        <v>0.2476337013930058</v>
+        <v>-0.01850643309561199</v>
       </c>
       <c r="F89">
-        <v>0.08729919122654996</v>
+        <v>-0.02735596632307435</v>
       </c>
       <c r="G89">
-        <v>0.01421535008784534</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-9.242876864842051e-06</v>
+      </c>
+      <c r="H89">
+        <v>-0.008622983328487894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09329199865376997</v>
+        <v>0.2140834308351568</v>
       </c>
       <c r="C90">
-        <v>0.1457242644848202</v>
+        <v>-0.0206852634026988</v>
       </c>
       <c r="D90">
-        <v>-0.217646281497741</v>
+        <v>-0.313925533024516</v>
       </c>
       <c r="E90">
-        <v>0.2575500667131089</v>
+        <v>-0.009373728705429582</v>
       </c>
       <c r="F90">
-        <v>0.03794113897412683</v>
+        <v>-0.05224475297558605</v>
       </c>
       <c r="G90">
-        <v>0.05158932804847764</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0092926073156473</v>
+      </c>
+      <c r="H90">
+        <v>0.0529259095033285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3054361403703348</v>
+        <v>0.227412747149388</v>
       </c>
       <c r="C91">
-        <v>-0.1325988655077685</v>
+        <v>0.09710108864854675</v>
       </c>
       <c r="D91">
-        <v>-0.08387793185936797</v>
+        <v>0.1500990141131894</v>
       </c>
       <c r="E91">
-        <v>-0.1197011800473578</v>
+        <v>-0.01014185030839787</v>
       </c>
       <c r="F91">
-        <v>-0.2260023504765898</v>
+        <v>0.08382424847077512</v>
       </c>
       <c r="G91">
-        <v>-0.01656846405914325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1419500656510379</v>
+      </c>
+      <c r="H91">
+        <v>0.169403627050912</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.172924033367212</v>
+        <v>0.2559652619927688</v>
       </c>
       <c r="C92">
-        <v>0.09256572259020432</v>
+        <v>0.04754189029452616</v>
       </c>
       <c r="D92">
-        <v>-0.377681789560058</v>
+        <v>-0.2385745991546249</v>
       </c>
       <c r="E92">
-        <v>0.1979680573557621</v>
+        <v>-0.0003889090642594569</v>
       </c>
       <c r="F92">
-        <v>-0.101258303805634</v>
+        <v>0.01521120413104428</v>
       </c>
       <c r="G92">
-        <v>0.4563247229715027</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02522209224777796</v>
+      </c>
+      <c r="H92">
+        <v>0.1165089842570486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09791373712388937</v>
+        <v>0.2395199149206496</v>
       </c>
       <c r="C93">
-        <v>0.131793233619667</v>
+        <v>-0.01108178362487692</v>
       </c>
       <c r="D93">
-        <v>-0.253265125332362</v>
+        <v>-0.3216261757737874</v>
       </c>
       <c r="E93">
-        <v>0.3595940456510709</v>
+        <v>-0.03193023667854866</v>
       </c>
       <c r="F93">
-        <v>-0.006478355976745337</v>
+        <v>-0.05518845903302832</v>
       </c>
       <c r="G93">
-        <v>-0.03493725574549537</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.005378282374094884</v>
+      </c>
+      <c r="H93">
+        <v>-0.01112904555668656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2987164366111006</v>
+        <v>0.2789230640513926</v>
       </c>
       <c r="C94">
-        <v>-0.1615371852717994</v>
+        <v>0.09288518407762551</v>
       </c>
       <c r="D94">
-        <v>-0.1745844665849901</v>
+        <v>0.1451919865652294</v>
       </c>
       <c r="E94">
-        <v>-0.1589145393825982</v>
+        <v>-0.03048609657040477</v>
       </c>
       <c r="F94">
-        <v>-0.1611011929572821</v>
+        <v>0.1846460497642453</v>
       </c>
       <c r="G94">
-        <v>-0.0431296387014161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2364360658107703</v>
+      </c>
+      <c r="H94">
+        <v>0.2852223264404302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.046132979379929</v>
+        <v>0.05470525812366168</v>
       </c>
       <c r="C95">
-        <v>-0.04711868531649789</v>
+        <v>0.03528001425320842</v>
       </c>
       <c r="D95">
-        <v>0.05188409791051012</v>
+        <v>0.08549807097799771</v>
       </c>
       <c r="E95">
-        <v>-0.05270284953489743</v>
+        <v>-0.0827180587186466</v>
       </c>
       <c r="F95">
-        <v>0.06661555674884022</v>
+        <v>-0.006193045312319028</v>
       </c>
       <c r="G95">
-        <v>0.2227033171961139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04951756094053013</v>
+      </c>
+      <c r="H95">
+        <v>-0.05226508278514171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1612832763380071</v>
+        <v>0.1826387661948524</v>
       </c>
       <c r="C98">
-        <v>-0.05255887005858657</v>
+        <v>0.05665523010014621</v>
       </c>
       <c r="D98">
-        <v>0.02199959643858751</v>
+        <v>0.03753178210706649</v>
       </c>
       <c r="E98">
-        <v>0.1440276945630205</v>
+        <v>-0.05661145497014128</v>
       </c>
       <c r="F98">
-        <v>0.1240949571310491</v>
+        <v>0.008075911776052984</v>
       </c>
       <c r="G98">
-        <v>-0.3589784191769098</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07777637611322447</v>
+      </c>
+      <c r="H98">
+        <v>-0.3430261936695417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00571061805370682</v>
+        <v>0.01759789611696314</v>
       </c>
       <c r="C101">
-        <v>-0.01014430114479459</v>
+        <v>0.0005523957491259356</v>
       </c>
       <c r="D101">
-        <v>0.02101566321601925</v>
+        <v>0.01393016658088918</v>
       </c>
       <c r="E101">
-        <v>-0.067887626455748</v>
+        <v>0.003165228588570838</v>
       </c>
       <c r="F101">
-        <v>0.1756525668585993</v>
+        <v>0.01916202090200462</v>
       </c>
       <c r="G101">
-        <v>0.05886903254885826</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.10098370361017</v>
+      </c>
+      <c r="H101">
+        <v>0.02063527302557317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1130232326507313</v>
+        <v>0.1013693553379286</v>
       </c>
       <c r="C102">
-        <v>-0.04653166145312556</v>
+        <v>0.03364151742665354</v>
       </c>
       <c r="D102">
-        <v>-0.03026266716909713</v>
+        <v>0.08214391789701625</v>
       </c>
       <c r="E102">
-        <v>-0.07394350649679395</v>
+        <v>0.002574828319148998</v>
       </c>
       <c r="F102">
-        <v>-0.07951842208047985</v>
+        <v>0.04711427319678438</v>
       </c>
       <c r="G102">
-        <v>-0.002013020568216631</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07327594531433909</v>
+      </c>
+      <c r="H102">
+        <v>0.06529190549778252</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04343348451628997</v>
+        <v>0.01499627965521064</v>
       </c>
       <c r="C103">
-        <v>-0.008586185100649931</v>
+        <v>0.006197587619471174</v>
       </c>
       <c r="D103">
-        <v>-0.007380759587880514</v>
+        <v>0.01549359932092423</v>
       </c>
       <c r="E103">
-        <v>-0.05381355089598694</v>
+        <v>0.008386704285238503</v>
       </c>
       <c r="F103">
-        <v>0.0107326423077045</v>
+        <v>0.007385282480736621</v>
       </c>
       <c r="G103">
-        <v>0.03947082719792613</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.001991494666891173</v>
+      </c>
+      <c r="H103">
+        <v>0.01193355976670558</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1864377202866741</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9563898967823439</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1458688689149602</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.028451524487089</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1305341435024668</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01368785440083522</v>
+      </c>
+      <c r="H104">
+        <v>0.04868776790904628</v>
       </c>
     </row>
   </sheetData>
